--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1853257.066983873</v>
+        <v>-1856065.882690612</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.0948930920227</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>117.7219483956632</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.16030923147326</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>257.3245642219649</v>
       </c>
       <c r="I2" t="n">
         <v>127.8799231645347</v>
@@ -716,16 +716,16 @@
         <v>251.1742586451435</v>
       </c>
       <c r="V2" t="n">
-        <v>148.0240097528182</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>101.164597667581</v>
       </c>
       <c r="I3" t="n">
-        <v>33.01938019215364</v>
+        <v>49.92971842544494</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.98666974321216</v>
+        <v>12.07633150992091</v>
       </c>
       <c r="S3" t="n">
         <v>150.3911478434578</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.41509635344507</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>118.8043408125845</v>
+        <v>134.0824567889061</v>
       </c>
       <c r="S4" t="n">
         <v>207.2686478538544</v>
@@ -871,7 +871,7 @@
         <v>223.8394148919928</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2666101070915</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20.11897884370727</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>162.7754878063557</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>369.5213723344684</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>5.235372839790756</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>152.5669911149886</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>209.6908419981031</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1190,16 +1190,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>101.3419331743966</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6106284023662</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>67.52460403550485</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1582,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>206.5512581543057</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365925</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>154.2390706773461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>104.8913819999782</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>142.1343012721633</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>149.0929686256689</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>135.0949745400652</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2555,22 +2555,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444118</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>141.5888089825039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>169.9685329265976</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.981188826526</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1094.056011763859</v>
+        <v>929.669937270088</v>
       </c>
       <c r="C2" t="n">
-        <v>991.9399581355535</v>
+        <v>560.7074203296763</v>
       </c>
       <c r="D2" t="n">
-        <v>991.9399581355535</v>
+        <v>441.7963613441579</v>
       </c>
       <c r="E2" t="n">
-        <v>606.1517055373093</v>
+        <v>441.7963613441579</v>
       </c>
       <c r="F2" t="n">
-        <v>195.1658007477018</v>
+        <v>441.7963613441579</v>
       </c>
       <c r="G2" t="n">
-        <v>181.872559099749</v>
+        <v>441.7963613441579</v>
       </c>
       <c r="H2" t="n">
-        <v>181.872559099749</v>
+        <v>181.8725590997489</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>53.4830373732289</v>
+        <v>220.888686393582</v>
       </c>
       <c r="K2" t="n">
-        <v>426.2977059541163</v>
+        <v>593.7033549744696</v>
       </c>
       <c r="L2" t="n">
-        <v>941.0838963989933</v>
+        <v>1108.489545419347</v>
       </c>
       <c r="M2" t="n">
-        <v>1530.48926742179</v>
+        <v>1363.331740139927</v>
       </c>
       <c r="N2" t="n">
-        <v>1681.826380838403</v>
+        <v>1514.66885355654</v>
       </c>
       <c r="O2" t="n">
-        <v>2021.229116543221</v>
+        <v>2021.22911654322</v>
       </c>
       <c r="P2" t="n">
         <v>2415.892198408932</v>
@@ -4364,16 +4364,16 @@
         <v>2003.640811859584</v>
       </c>
       <c r="V2" t="n">
-        <v>1854.121610089061</v>
+        <v>1672.577924516014</v>
       </c>
       <c r="W2" t="n">
-        <v>1854.121610089061</v>
+        <v>1319.8092692459</v>
       </c>
       <c r="X2" t="n">
-        <v>1480.655851827981</v>
+        <v>1319.8092692459</v>
       </c>
       <c r="Y2" t="n">
-        <v>1480.655851827981</v>
+        <v>929.669937270088</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>954.9726894739438</v>
+        <v>972.0538392045411</v>
       </c>
       <c r="C3" t="n">
-        <v>780.5196601928168</v>
+        <v>797.6008099234141</v>
       </c>
       <c r="D3" t="n">
-        <v>631.5852505315655</v>
+        <v>648.6664002621628</v>
       </c>
       <c r="E3" t="n">
-        <v>472.34779552611</v>
+        <v>489.4289452567074</v>
       </c>
       <c r="F3" t="n">
-        <v>325.813237552995</v>
+        <v>342.8943872835923</v>
       </c>
       <c r="G3" t="n">
-        <v>188.2402911151024</v>
+        <v>205.3214408456997</v>
       </c>
       <c r="H3" t="n">
-        <v>86.05382882461653</v>
+        <v>103.1349785552138</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>159.179021593283</v>
+        <v>159.1790215932831</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7879007003857</v>
+        <v>205.9673160579331</v>
       </c>
       <c r="L3" t="n">
-        <v>944.1550196478526</v>
+        <v>682.3344350054001</v>
       </c>
       <c r="M3" t="n">
-        <v>1552.032200314422</v>
+        <v>1290.21161567197</v>
       </c>
       <c r="N3" t="n">
-        <v>1892.606486350656</v>
+        <v>1929.884509903237</v>
       </c>
       <c r="O3" t="n">
-        <v>2021.442839993579</v>
+        <v>2058.72086354616</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.790446915861</v>
+        <v>2458.068470468442</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2605.76651259356</v>
+        <v>2622.847662324157</v>
       </c>
       <c r="S3" t="n">
-        <v>2453.856262246632</v>
+        <v>2470.93741197723</v>
       </c>
       <c r="T3" t="n">
-        <v>2256.336732439403</v>
+        <v>2273.41788217</v>
       </c>
       <c r="U3" t="n">
-        <v>2028.189290424443</v>
+        <v>2045.27044015504</v>
       </c>
       <c r="V3" t="n">
-        <v>1793.0371821927</v>
+        <v>1810.118331923297</v>
       </c>
       <c r="W3" t="n">
-        <v>1538.799825464499</v>
+        <v>1555.880975195096</v>
       </c>
       <c r="X3" t="n">
-        <v>1330.948325258966</v>
+        <v>1348.029474989563</v>
       </c>
       <c r="Y3" t="n">
-        <v>1123.188026494012</v>
+        <v>1140.269176224609</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.6371024675198</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="C4" t="n">
-        <v>52.70091953961285</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="D4" t="n">
-        <v>52.70091953961285</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="E4" t="n">
-        <v>52.70091953961285</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961285</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961285</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="J4" t="n">
-        <v>52.70091953961285</v>
+        <v>1728.994254921049</v>
       </c>
       <c r="K4" t="n">
-        <v>141.1905938405665</v>
+        <v>1817.483929222003</v>
       </c>
       <c r="L4" t="n">
-        <v>309.9533456201951</v>
+        <v>1986.246681001632</v>
       </c>
       <c r="M4" t="n">
-        <v>498.2791281824881</v>
+        <v>2174.572463563925</v>
       </c>
       <c r="N4" t="n">
-        <v>687.5615609861241</v>
+        <v>2363.854896367561</v>
       </c>
       <c r="O4" t="n">
-        <v>846.3782284153087</v>
+        <v>2522.671563796745</v>
       </c>
       <c r="P4" t="n">
-        <v>958.7526415992057</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="Q4" t="n">
-        <v>958.7526415992057</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R4" t="n">
-        <v>838.7482569400295</v>
+        <v>2499.609151941343</v>
       </c>
       <c r="S4" t="n">
-        <v>629.3859863805806</v>
+        <v>2290.246881381895</v>
       </c>
       <c r="T4" t="n">
-        <v>403.2855672977595</v>
+        <v>2064.146462299073</v>
       </c>
       <c r="U4" t="n">
-        <v>403.2855672977595</v>
+        <v>1774.988270271708</v>
       </c>
       <c r="V4" t="n">
-        <v>403.2855672977595</v>
+        <v>1774.988270271708</v>
       </c>
       <c r="W4" t="n">
-        <v>403.2855672977595</v>
+        <v>1774.988270271708</v>
       </c>
       <c r="X4" t="n">
-        <v>403.2855672977595</v>
+        <v>1754.666069419479</v>
       </c>
       <c r="Y4" t="n">
-        <v>403.2855672977595</v>
+        <v>1754.666069419479</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1037.046584683457</v>
+        <v>1557.263419927034</v>
       </c>
       <c r="C5" t="n">
-        <v>668.0840677430456</v>
+        <v>1557.263419927034</v>
       </c>
       <c r="D5" t="n">
-        <v>668.0840677430456</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="E5" t="n">
-        <v>668.0840677430456</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>171.8788747909445</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>575.34598781099</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>1128.159246057189</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M5" t="n">
-        <v>1314.858658882597</v>
+        <v>1691.850838332715</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>2319.158506392561</v>
       </c>
       <c r="O5" t="n">
         <v>2489.327531709521</v>
@@ -4595,22 +4595,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2166.554411993505</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2166.554411993505</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.785756723391</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.785756723391</v>
+        <v>1930.517331375992</v>
       </c>
       <c r="Y5" t="n">
-        <v>1423.646424747579</v>
+        <v>1557.263419927034</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L6" t="n">
-        <v>886.4908637115414</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M6" t="n">
-        <v>1527.036213178646</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N6" t="n">
-        <v>1746.206884640153</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O6" t="n">
-        <v>2295.642893392876</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330.4139431414077</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="C7" t="n">
-        <v>330.4139431414077</v>
+        <v>658.0702213834157</v>
       </c>
       <c r="D7" t="n">
-        <v>325.1256877476797</v>
+        <v>507.95358197108</v>
       </c>
       <c r="E7" t="n">
-        <v>177.2125941652866</v>
+        <v>507.95358197108</v>
       </c>
       <c r="F7" t="n">
-        <v>177.2125941652866</v>
+        <v>361.0636344731696</v>
       </c>
       <c r="G7" t="n">
-        <v>177.2125941652866</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
         <v>52.70091953961285</v>
@@ -4750,25 +4750,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>619.566119563728</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U7" t="n">
-        <v>330.4139431414077</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V7" t="n">
-        <v>330.4139431414077</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="W7" t="n">
-        <v>330.4139431414077</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="X7" t="n">
-        <v>330.4139431414077</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="Y7" t="n">
-        <v>330.4139431414077</v>
+        <v>827.0064043113226</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1907.973785425286</v>
+        <v>1092.583537404008</v>
       </c>
       <c r="C8" t="n">
-        <v>1539.011268484874</v>
+        <v>1092.583537404008</v>
       </c>
       <c r="D8" t="n">
-        <v>1180.745569878124</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E8" t="n">
-        <v>794.9573172798794</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0118165306759</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4808,19 +4808,19 @@
         <v>477.4022825530416</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.215540799241</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M8" t="n">
-        <v>1661.933351782553</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N8" t="n">
-        <v>1856.267564674535</v>
+        <v>1875.756417437453</v>
       </c>
       <c r="O8" t="n">
-        <v>2170.746810619753</v>
+        <v>2422.91762220453</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2533.651947454057</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U8" t="n">
-        <v>2010.339374490333</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V8" t="n">
-        <v>1907.973785425286</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W8" t="n">
-        <v>1907.973785425286</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X8" t="n">
-        <v>1907.973785425286</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="Y8" t="n">
-        <v>1907.973785425286</v>
+        <v>1092.583537404008</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>295.3416275592179</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>799.7031674253365</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1440.248516892441</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>474.2191810755327</v>
+        <v>642.9975852707006</v>
       </c>
       <c r="C10" t="n">
-        <v>474.2191810755327</v>
+        <v>474.0614023427937</v>
       </c>
       <c r="D10" t="n">
-        <v>324.1025416631969</v>
+        <v>323.944762930458</v>
       </c>
       <c r="E10" t="n">
-        <v>324.1025416631969</v>
+        <v>323.944762930458</v>
       </c>
       <c r="F10" t="n">
-        <v>177.2125941652866</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961285</v>
@@ -4993,19 +4993,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>984.4289302560235</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>984.4289302560235</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>695.0117602190628</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>695.0117602190628</v>
+        <v>824.6460501009403</v>
       </c>
       <c r="Y10" t="n">
-        <v>474.2191810755327</v>
+        <v>824.6460501009403</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1835.869149758807</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X13" t="n">
-        <v>988.4871545236284</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.4871545236284</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>366.9636532421608</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>199.7675539570408</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5531,25 +5531,25 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="23">
@@ -5969,10 +5969,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>545.3854261579752</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>397.4723325755821</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>397.4723325755821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>230.276233290462</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362667</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1357.386127043032</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014847</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6689,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,10 +7123,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,25 +7327,25 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>150.8995423128889</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,25 +7828,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
@@ -7985,13 +7985,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>111.5709311673608</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>211.9541941093489</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>177.2225680859449</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>172.4227184908179</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>98.93303561408925</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8222,13 +8222,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>310.6366017047609</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,16 +8304,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>20.72114122105287</v>
+        <v>56.94306717106312</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>145.7678996245036</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>67.08071667170762</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295434</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>236.9610932250197</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.1603092314733</v>
       </c>
       <c r="H2" t="n">
-        <v>317.5336584557159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.28980726757976</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>179.7282487173167</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.91033823329132</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0299597861359</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6828348553325</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.5499954250393</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.41509635344511</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,10 +22747,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.689758882002977</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15.27811597632166</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2666101070915</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>79.63321623493849</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>71.47058471169103</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>35.40333084624568</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>110.0033420516647</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>69.49168472642589</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>5.19973830615865</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>55.74112246243951</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84626.07044716089</v>
+        <v>84626.07044716095</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26326,7 +26326,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
         <v>100893.3249612508</v>
@@ -26335,13 +26335,13 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
+        <v>100893.3249612508</v>
+      </c>
+      <c r="K2" t="n">
         <v>100893.3249612507</v>
       </c>
-      <c r="K2" t="n">
-        <v>100893.3249612508</v>
-      </c>
       <c r="L2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330355</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>734303.4749798379</v>
+        <v>734303.4749798381</v>
       </c>
       <c r="C3" t="n">
-        <v>55134.27828024311</v>
+        <v>55134.27828024283</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363171</v>
       </c>
       <c r="M3" t="n">
         <v>128077.5968157138</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118923.607285676</v>
+        <v>118923.6072856759</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707371</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707383</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.424496707392</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707414</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707401</v>
-      </c>
       <c r="J4" t="n">
-        <v>6897.424496707422</v>
+        <v>6897.424496707454</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707387</v>
       </c>
       <c r="L4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14888.28375980086</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14888.28375980089</v>
+      </c>
+      <c r="O4" t="n">
         <v>14888.28375980082</v>
       </c>
-      <c r="M4" t="n">
-        <v>14888.28375980083</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14888.28375980085</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14888.28375980086</v>
-      </c>
       <c r="P4" t="n">
-        <v>14888.28375980083</v>
+        <v>14888.28375980082</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-853899.1636436859</v>
+        <v>-854259.2466594033</v>
       </c>
       <c r="C6" t="n">
-        <v>-229013.9473063021</v>
+        <v>-229013.9473063018</v>
       </c>
       <c r="D6" t="n">
         <v>-173879.669026059</v>
       </c>
       <c r="E6" t="n">
-        <v>-782814.9766359482</v>
+        <v>-782849.7145613838</v>
       </c>
       <c r="F6" t="n">
-        <v>-7126.629359363695</v>
+        <v>-7161.367284799388</v>
       </c>
       <c r="G6" t="n">
-        <v>-7126.629359363738</v>
+        <v>-7161.367284799431</v>
       </c>
       <c r="H6" t="n">
-        <v>-7126.629359363738</v>
+        <v>-7161.367284799402</v>
       </c>
       <c r="I6" t="n">
-        <v>-7126.629359363738</v>
+        <v>-7161.367284799402</v>
       </c>
       <c r="J6" t="n">
-        <v>-179487.6217596446</v>
+        <v>-179522.3596850802</v>
       </c>
       <c r="K6" t="n">
-        <v>-7126.629359363753</v>
+        <v>-7161.367284799577</v>
       </c>
       <c r="L6" t="n">
-        <v>-34849.89637431235</v>
+        <v>-34849.89637431255</v>
       </c>
       <c r="M6" t="n">
-        <v>-143499.7751963945</v>
+        <v>-143499.7751963946</v>
       </c>
       <c r="N6" t="n">
-        <v>-15422.17838068079</v>
+        <v>-15422.17838068081</v>
       </c>
       <c r="O6" t="n">
-        <v>-15422.17838068082</v>
+        <v>-15422.17838068077</v>
       </c>
       <c r="P6" t="n">
-        <v>-15422.17838068078</v>
+        <v>-15422.17838068077</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608703</v>
+        <v>532.9290355608706</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.9290355608703</v>
+        <v>532.9290355608706</v>
       </c>
       <c r="C3" t="n">
-        <v>60.54706477719477</v>
+        <v>60.54706477719446</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451602</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>264.1779986789849</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60.20909423375099</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.28980726757968</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>16.91033823329121</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0299597861359</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.6828348553325</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>126.5499954250393</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5.68975888200292</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>205.5906765453299</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>244.1005579353557</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>16.71656632158522</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>143.3801001784216</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>14.35378543958183</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27822,13 +27822,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>144.9921996225799</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>226.4103252957383</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>43.81041962056507</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>218.7360506225921</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,13 +28798,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29275,22 +29275,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29524,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>7.039426512964665e-14</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.142428283661789</v>
+        <v>2.14242828366179</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9411436600513</v>
+        <v>21.94114366005131</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59596640587118</v>
+        <v>82.59596640587122</v>
       </c>
       <c r="J2" t="n">
-        <v>181.8359225404399</v>
+        <v>181.83592254044</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5249117878435</v>
+        <v>272.5249117878436</v>
       </c>
       <c r="L2" t="n">
-        <v>338.091251373958</v>
+        <v>338.0912513739582</v>
       </c>
       <c r="M2" t="n">
-        <v>376.1916603635283</v>
+        <v>376.1916603635285</v>
       </c>
       <c r="N2" t="n">
-        <v>382.2788347244824</v>
+        <v>382.2788347244826</v>
       </c>
       <c r="O2" t="n">
-        <v>360.9750634788204</v>
+        <v>360.9750634788206</v>
       </c>
       <c r="P2" t="n">
-        <v>308.08386522592</v>
+        <v>308.0838652259202</v>
       </c>
       <c r="Q2" t="n">
-        <v>231.3581523172821</v>
+        <v>231.3581523172822</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5793106735699</v>
+        <v>134.57931067357</v>
       </c>
       <c r="S2" t="n">
-        <v>48.82058451394305</v>
+        <v>48.82058451394308</v>
       </c>
       <c r="T2" t="n">
-        <v>9.378479811729484</v>
+        <v>9.378479811729489</v>
       </c>
       <c r="U2" t="n">
-        <v>0.171394262692943</v>
+        <v>0.1713942626929431</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.146300189696966</v>
+        <v>1.146300189696967</v>
       </c>
       <c r="H3" t="n">
-        <v>11.07084656891544</v>
+        <v>11.07084656891545</v>
       </c>
       <c r="I3" t="n">
-        <v>39.46691442597012</v>
+        <v>39.46691442597014</v>
       </c>
       <c r="J3" t="n">
         <v>108.3002297643086</v>
       </c>
       <c r="K3" t="n">
-        <v>185.1023424740053</v>
+        <v>185.1023424740054</v>
       </c>
       <c r="L3" t="n">
-        <v>248.8929425041593</v>
+        <v>248.8929425041595</v>
       </c>
       <c r="M3" t="n">
-        <v>290.4463243806742</v>
+        <v>290.4463243806745</v>
       </c>
       <c r="N3" t="n">
-        <v>298.1335743370193</v>
+        <v>298.1335743370195</v>
       </c>
       <c r="O3" t="n">
-        <v>272.7339753968918</v>
+        <v>272.7339753968919</v>
       </c>
       <c r="P3" t="n">
-        <v>218.8930599080111</v>
+        <v>218.8930599080112</v>
       </c>
       <c r="Q3" t="n">
         <v>146.3242136883356</v>
       </c>
       <c r="R3" t="n">
-        <v>71.17116440943097</v>
+        <v>71.17116440943101</v>
       </c>
       <c r="S3" t="n">
-        <v>21.29202326038004</v>
+        <v>21.29202326038005</v>
       </c>
       <c r="T3" t="n">
-        <v>4.620394185664525</v>
+        <v>4.620394185664527</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07541448616427412</v>
+        <v>0.07541448616427418</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9610195723228807</v>
+        <v>0.9610195723228813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.544337652107073</v>
+        <v>8.544337652107078</v>
       </c>
       <c r="I4" t="n">
-        <v>28.900479502219</v>
+        <v>28.90047950221902</v>
       </c>
       <c r="J4" t="n">
-        <v>67.94408376322767</v>
+        <v>67.94408376322771</v>
       </c>
       <c r="K4" t="n">
         <v>111.6530012207856</v>
       </c>
       <c r="L4" t="n">
-        <v>142.8774007797127</v>
+        <v>142.8774007797128</v>
       </c>
       <c r="M4" t="n">
-        <v>150.6441862323948</v>
+        <v>150.6441862323949</v>
       </c>
       <c r="N4" t="n">
-        <v>147.0622041901006</v>
+        <v>147.0622041901007</v>
       </c>
       <c r="O4" t="n">
         <v>135.835748277056</v>
       </c>
       <c r="P4" t="n">
-        <v>116.2309490016691</v>
+        <v>116.2309490016692</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.47228436969141</v>
+        <v>80.47228436969147</v>
       </c>
       <c r="R4" t="n">
-        <v>43.21093458826333</v>
+        <v>43.21093458826336</v>
       </c>
       <c r="S4" t="n">
-        <v>16.74795018311783</v>
+        <v>16.74795018311784</v>
       </c>
       <c r="T4" t="n">
-        <v>4.106174536288671</v>
+        <v>4.106174536288673</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05241924939942991</v>
+        <v>0.05241924939942995</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>357.9244589488886</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>616.375287159485</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>263.7590256391499</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P27" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>567.7870775946151</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>182.7118610708585</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,13 +34457,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7900180137535813</v>
+        <v>169.8866331858275</v>
       </c>
       <c r="K2" t="n">
-        <v>376.5804733140276</v>
+        <v>376.5804733140278</v>
       </c>
       <c r="L2" t="n">
-        <v>519.9860509544212</v>
+        <v>519.9860509544214</v>
       </c>
       <c r="M2" t="n">
-        <v>595.3589606290881</v>
+        <v>257.4163583036166</v>
       </c>
       <c r="N2" t="n">
-        <v>152.8657711278914</v>
+        <v>152.8657711278917</v>
       </c>
       <c r="O2" t="n">
-        <v>342.8310461664826</v>
+        <v>511.6770333198792</v>
       </c>
       <c r="P2" t="n">
-        <v>398.6495776421331</v>
+        <v>398.6495776421333</v>
       </c>
       <c r="Q2" t="n">
-        <v>221.3674531027373</v>
+        <v>221.3674531027374</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107.5536384380507</v>
+        <v>107.5536384380508</v>
       </c>
       <c r="K3" t="n">
-        <v>311.7261405122249</v>
+        <v>47.26090349964642</v>
       </c>
       <c r="L3" t="n">
-        <v>481.1789080277443</v>
+        <v>481.1789080277445</v>
       </c>
       <c r="M3" t="n">
-        <v>614.0173542086559</v>
+        <v>614.0173542086561</v>
       </c>
       <c r="N3" t="n">
-        <v>344.0144303396308</v>
+        <v>646.1342365972398</v>
       </c>
       <c r="O3" t="n">
-        <v>130.1377309524473</v>
+        <v>130.1377309524475</v>
       </c>
       <c r="P3" t="n">
-        <v>403.381421133618</v>
+        <v>403.3814211336181</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.4197273381631</v>
+        <v>178.7651580931321</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>89.38350939490272</v>
+        <v>89.38350939490279</v>
       </c>
       <c r="L4" t="n">
-        <v>170.4674260400288</v>
+        <v>170.4674260400289</v>
       </c>
       <c r="M4" t="n">
-        <v>190.2280631942354</v>
+        <v>190.2280631942355</v>
       </c>
       <c r="N4" t="n">
-        <v>191.1943765693292</v>
+        <v>191.1943765693293</v>
       </c>
       <c r="O4" t="n">
-        <v>160.4208761910956</v>
+        <v>160.4208761910957</v>
       </c>
       <c r="P4" t="n">
         <v>113.5095082665626</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>120.3817729811431</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
@@ -34942,13 +34942,13 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>499.2218671849707</v>
       </c>
       <c r="N5" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35024,16 +35024,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>221.3845166277849</v>
+        <v>257.6064425777951</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>317.6558039850688</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>102.4182116430158</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>245.0916242622273</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M14" t="n">
         <v>735.3001107902948</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>226.5827468655553</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>473.7790427150405</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>132.4173135558165</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,13 +36364,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243153</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P27" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>425.1908331501707</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>55.8742344041918</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,13 +38105,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
